--- a/data/trans_camb/P2C_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,76; 26,95</t>
+          <t>9,65; 28,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 10,49</t>
+          <t>-8,41; 10,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-44,0; -30,74</t>
+          <t>-44,28; -31,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,49; 35,85</t>
+          <t>17,56; 35,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,37; 29,23</t>
+          <t>9,78; 28,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-49,89; -34,88</t>
+          <t>-49,55; -35,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,75; 29,01</t>
+          <t>15,92; 28,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,24; 17,12</t>
+          <t>3,75; 16,78</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-44,12; -34,81</t>
+          <t>-44,4; -34,77</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,61; 66,87</t>
+          <t>19,42; 69,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-16,95; 26,33</t>
+          <t>-16,86; 25,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-89,04; -77,97</t>
+          <t>-89,29; -77,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>29,79; 75,43</t>
+          <t>29,78; 72,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,65; 61,51</t>
+          <t>16,69; 60,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-83,9; -73,27</t>
+          <t>-83,19; -71,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>30,43; 65,38</t>
+          <t>31,55; 63,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,29; 37,47</t>
+          <t>7,57; 36,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-84,68; -77,2</t>
+          <t>-85,05; -77,26</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,47; 20,34</t>
+          <t>-0,32; 19,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 12,14</t>
+          <t>-8,28; 12,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-50,77; -34,98</t>
+          <t>-49,74; -34,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,17; 26,3</t>
+          <t>11,01; 26,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 14,96</t>
+          <t>-2,23; 14,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-60,06; -46,18</t>
+          <t>-60,12; -46,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,55; 19,91</t>
+          <t>6,9; 20,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 10,13</t>
+          <t>-2,84; 10,43</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-53,41; -43,46</t>
+          <t>-53,66; -43,19</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 49,47</t>
+          <t>-0,89; 45,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-15,08; 29,35</t>
+          <t>-16,07; 29,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-92,19; -82,16</t>
+          <t>-91,91; -81,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,43; 43,87</t>
+          <t>15,91; 44,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 24,9</t>
+          <t>-3,21; 24,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-85,91; -76,03</t>
+          <t>-85,99; -76,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,8; 37,74</t>
+          <t>11,32; 37,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 19,03</t>
+          <t>-4,88; 19,14</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-87,84; -81,13</t>
+          <t>-87,97; -80,89</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,58; 16,95</t>
+          <t>3,36; 17,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 14,07</t>
+          <t>-0,8; 14,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-40,83; -26,09</t>
+          <t>-41,09; -26,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 14,81</t>
+          <t>-8,26; 14,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-21,08; 5,23</t>
+          <t>-20,43; 5,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-55,79; -36,61</t>
+          <t>-55,98; -36,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,72; 15,84</t>
+          <t>2,73; 14,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 9,6</t>
+          <t>-3,85; 9,29</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-45,02; -31,22</t>
+          <t>-44,36; -31,2</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,58; 48,8</t>
+          <t>7,91; 50,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 40,78</t>
+          <t>-1,91; 42,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-93,76; -70,53</t>
+          <t>-94,76; -70,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-13,99; 30,49</t>
+          <t>-13,01; 29,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-34,26; 10,92</t>
+          <t>-33,29; 11,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-88,51; -73,94</t>
+          <t>-88,73; -74,14</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,59; 39,55</t>
+          <t>5,91; 36,82</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-9,3; 23,29</t>
+          <t>-8,15; 23,27</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-92,93; -74,38</t>
+          <t>-93,26; -74,03</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,42; 17,62</t>
+          <t>7,96; 17,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,41; 16,79</t>
+          <t>6,36; 16,95</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-27,73; -20,17</t>
+          <t>-28,2; -20,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>14,77; 27,41</t>
+          <t>15,9; 27,7</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,12; 12,6</t>
+          <t>-0,35; 12,59</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-46,17; 9,51</t>
+          <t>-45,83; 12,13</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>12,79; 20,63</t>
+          <t>12,94; 20,45</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,08; 14,81</t>
+          <t>6,47; 14,84</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-32,28; 4,85</t>
+          <t>-32,93; -0,72</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>20,14; 55,32</t>
+          <t>21,69; 56,47</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>17,4; 52,82</t>
+          <t>17,29; 54,09</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-75,54; -63,13</t>
+          <t>-76,41; -62,7</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>24,89; 52,51</t>
+          <t>25,95; 52,09</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,23; 23,83</t>
+          <t>-0,57; 23,69</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-79,57; 17,95</t>
+          <t>-79,32; 23,63</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>28,62; 51,1</t>
+          <t>29,08; 50,02</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>15,57; 36,04</t>
+          <t>14,64; 36,68</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-74,86; 11,63</t>
+          <t>-75,15; -1,2</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,26; 20,55</t>
+          <t>3,33; 20,44</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 14,84</t>
+          <t>-1,56; 14,72</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-32,94; -18,79</t>
+          <t>-33,01; -19,28</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5,86; 18,79</t>
+          <t>6,67; 19,15</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 10,62</t>
+          <t>-2,83; 11,09</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-42,73; -31,21</t>
+          <t>-42,38; -30,16</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>6,86; 17,51</t>
+          <t>6,89; 17,2</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 8,54</t>
+          <t>-1,54; 9,13</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-37,92; -29,3</t>
+          <t>-37,62; -28,95</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>5,51; 70,77</t>
+          <t>8,48; 73,8</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 53,03</t>
+          <t>-4,18; 50,69</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-83,77; -66,16</t>
+          <t>-84,21; -67,25</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>11,39; 41,11</t>
+          <t>12,73; 42,93</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 23,9</t>
+          <t>-4,83; 25,35</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-81,27; -68,78</t>
+          <t>-81,58; -68,56</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>14,16; 42,83</t>
+          <t>14,72; 42,09</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 20,95</t>
+          <t>-3,14; 22,48</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-80,67; -71,04</t>
+          <t>-80,63; -70,91</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 12,44</t>
+          <t>-8,23; 12,95</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 21,61</t>
+          <t>-1,42; 21,94</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-19,79; -4,04</t>
+          <t>-19,9; -4,58</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>4,24; 13,87</t>
+          <t>3,64; 13,64</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 3,98</t>
+          <t>-5,39; 3,84</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-22,02; -14,3</t>
+          <t>-22,06; -14,53</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>3,56; 12,08</t>
+          <t>3,85; 12,63</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 4,8</t>
+          <t>-3,92; 4,61</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-22,08; -15,09</t>
+          <t>-22,13; -15,14</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-41,2; 131,89</t>
+          <t>-43,69; 142,52</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-7,6; 226,8</t>
+          <t>-11,04; 217,13</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-93,77; -33,39</t>
+          <t>-92,59; -34,85</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>13,04; 49,86</t>
+          <t>11,32; 48,24</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-15,79; 13,63</t>
+          <t>-16,34; 13,39</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-66,81; -49,83</t>
+          <t>-67,19; -50,62</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>11,63; 45,88</t>
+          <t>12,47; 47,8</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-12,71; 17,67</t>
+          <t>-12,8; 17,16</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-71,38; -56,48</t>
+          <t>-71,12; -56,27</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>9,25; 15,23</t>
+          <t>9,16; 15,75</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>4,05; 10,1</t>
+          <t>3,98; 10,45</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-32,2; -26,67</t>
+          <t>-32,08; -26,84</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>12,95; 18,42</t>
+          <t>12,73; 18,69</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>2,27; 8,12</t>
+          <t>2,17; 8,25</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-34,67; -12,22</t>
+          <t>-34,79; -14,09</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>12,07; 16,35</t>
+          <t>11,81; 16,46</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>4,01; 8,36</t>
+          <t>3,95; 8,24</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-32,75; -19,17</t>
+          <t>-32,56; -20,36</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>23,95; 43,07</t>
+          <t>23,81; 44,96</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>10,42; 28,59</t>
+          <t>10,27; 29,88</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-83,99; -75,66</t>
+          <t>-84,29; -76,09</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>27,25; 41,58</t>
+          <t>26,79; 42,33</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>4,81; 18,47</t>
+          <t>4,6; 18,46</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-74,61; -26,26</t>
+          <t>-74,71; -30,41</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>27,9; 40,21</t>
+          <t>27,49; 40,3</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>9,39; 20,47</t>
+          <t>9,14; 20,37</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-77,38; -45,89</t>
+          <t>-77,13; -48,47</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2C_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
